--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="550">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -1817,9 +1817,6 @@
   </si>
   <si>
     <t xml:space="preserve">WP ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titlee</t>
   </si>
   <si>
     <t xml:space="preserve">Prio</t>
@@ -12389,7 +12386,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
       <selection pane="bottomLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
-      <selection pane="bottomRight" activeCell="AV157" activeCellId="1" sqref="C2 AV157"/>
+      <selection pane="bottomRight" activeCell="AV157" activeCellId="0" sqref="AV157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -12417,7 +12414,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="6" width="38.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="7" width="37.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="7" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="7" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="7" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="6" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="6" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="6" width="41.56"/>
@@ -30404,7 +30401,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="1" sqref="C2 G2"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30932,7 +30929,7 @@
         <v>477</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="D1" s="226" t="s">
         <v>1</v>
@@ -30956,7 +30953,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="227" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32556,14 +32553,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="C2 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="237" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.55"/>
@@ -32573,28 +32570,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="238" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="238" t="s">
+      <c r="C1" s="239" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="239" t="s">
+      <c r="D1" s="239" t="s">
         <v>482</v>
-      </c>
-      <c r="D1" s="239" t="s">
-        <v>483</v>
       </c>
       <c r="E1" s="239" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="239" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G1" s="239" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="239" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I1" s="239" t="s">
         <v>6</v>
@@ -32606,23 +32603,23 @@
       </c>
       <c r="B2" s="240"/>
       <c r="C2" s="241" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="E2" s="241" t="s">
         <v>487</v>
-      </c>
-      <c r="E2" s="241" t="s">
-        <v>488</v>
       </c>
       <c r="F2" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="241" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="241"/>
       <c r="I2" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32631,23 +32628,23 @@
       </c>
       <c r="B3" s="240"/>
       <c r="C3" s="241" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="241" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="241" t="s">
+      <c r="E3" s="241" t="s">
         <v>492</v>
-      </c>
-      <c r="E3" s="241" t="s">
-        <v>493</v>
       </c>
       <c r="F3" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H3" s="241"/>
       <c r="I3" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32656,23 +32653,23 @@
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="241" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="E4" s="241" t="s">
         <v>496</v>
-      </c>
-      <c r="E4" s="241" t="s">
-        <v>497</v>
       </c>
       <c r="F4" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G4" s="241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H4" s="241"/>
       <c r="I4" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32681,23 +32678,23 @@
       </c>
       <c r="B5" s="240"/>
       <c r="C5" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="241" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="241" t="s">
         <v>498</v>
-      </c>
-      <c r="E5" s="241" t="s">
-        <v>499</v>
       </c>
       <c r="F5" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="241" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H5" s="241"/>
       <c r="I5" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32706,23 +32703,23 @@
       </c>
       <c r="B6" s="240"/>
       <c r="C6" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" s="241" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="241" t="s">
         <v>501</v>
-      </c>
-      <c r="E6" s="241" t="s">
-        <v>502</v>
       </c>
       <c r="F6" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H6" s="241"/>
       <c r="I6" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32731,23 +32728,23 @@
       </c>
       <c r="B7" s="240"/>
       <c r="C7" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="241" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="241" t="s">
         <v>504</v>
-      </c>
-      <c r="E7" s="241" t="s">
-        <v>505</v>
       </c>
       <c r="F7" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="241" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H7" s="241"/>
       <c r="I7" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32755,22 +32752,22 @@
         <v>44109</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32779,23 +32776,23 @@
       </c>
       <c r="B9" s="240"/>
       <c r="C9" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D9" s="241" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="241" t="s">
         <v>511</v>
-      </c>
-      <c r="E9" s="241" t="s">
-        <v>512</v>
       </c>
       <c r="F9" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="241" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H9" s="241"/>
       <c r="I9" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32804,96 +32801,96 @@
       </c>
       <c r="B10" s="240"/>
       <c r="C10" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="241" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="241" t="s">
         <v>514</v>
-      </c>
-      <c r="E10" s="241" t="s">
-        <v>515</v>
       </c>
       <c r="F10" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G10" s="241" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H10" s="241"/>
       <c r="I10" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="240" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B11" s="240"/>
       <c r="C11" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D11" s="241" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="241" t="s">
         <v>518</v>
-      </c>
-      <c r="E11" s="241" t="s">
-        <v>519</v>
       </c>
       <c r="F11" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="241" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H11" s="241"/>
       <c r="I11" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="240" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B12" s="240"/>
       <c r="C12" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D12" s="241" t="s">
         <v>245</v>
       </c>
       <c r="E12" s="241" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F12" s="241" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="241" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H12" s="241"/>
       <c r="I12" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="237" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="242" t="s">
         <v>522</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="D13" s="242" t="s">
+      <c r="E13" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F13" s="242" t="s">
         <v>228</v>
       </c>
       <c r="G13" s="242" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32902,23 +32899,23 @@
       </c>
       <c r="B14" s="240"/>
       <c r="C14" s="241" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" s="241" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="241" t="s">
         <v>527</v>
-      </c>
-      <c r="E14" s="241" t="s">
-        <v>528</v>
       </c>
       <c r="F14" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H14" s="241"/>
       <c r="I14" s="241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32927,28 +32924,28 @@
       </c>
       <c r="B15" s="240"/>
       <c r="C15" s="241" t="s">
+        <v>529</v>
+      </c>
+      <c r="D15" s="241" t="s">
         <v>530</v>
       </c>
-      <c r="D15" s="241" t="s">
+      <c r="E15" s="241" t="s">
         <v>531</v>
-      </c>
-      <c r="E15" s="241" t="s">
-        <v>532</v>
       </c>
       <c r="F15" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="241" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H15" s="241"/>
       <c r="I15" s="241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D16" s="242" t="s">
         <v>75</v>
@@ -32957,27 +32954,27 @@
         <v>228</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D17" s="242" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F17" s="242" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32985,10 +32982,10 @@
         <v>44138</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="243" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>115</v>
@@ -32997,7 +32994,7 @@
         <v>58</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33005,19 +33002,19 @@
         <v>44153</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D19" s="243" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F19" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="243" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33025,16 +33022,16 @@
         <v>44153</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F20" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G20" s="243" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33043,23 +33040,23 @@
       </c>
       <c r="B21" s="240"/>
       <c r="C21" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D21" s="241" t="s">
+        <v>542</v>
+      </c>
+      <c r="E21" s="241" t="s">
         <v>543</v>
-      </c>
-      <c r="E21" s="241" t="s">
-        <v>544</v>
       </c>
       <c r="F21" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="241" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H21" s="241"/>
       <c r="I21" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -33081,7 +33078,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="C2 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33108,7 +33105,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33123,7 +33120,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="239" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33131,7 +33128,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33139,7 +33136,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33147,7 +33144,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="551">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -1817,6 +1817,9 @@
   </si>
   <si>
     <t xml:space="preserve">WP ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titlee</t>
   </si>
   <si>
     <t xml:space="preserve">Prio</t>
@@ -30903,7 +30906,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30921,7 +30924,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="223" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="228" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="228" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="224" t="s">
         <v>476</v>
       </c>
@@ -30929,7 +30932,7 @@
         <v>477</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="D1" s="226" t="s">
         <v>1</v>
@@ -30953,7 +30956,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="227" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32570,28 +32573,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="238" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B1" s="238" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C1" s="239" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D1" s="239" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E1" s="239" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="239" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G1" s="239" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="239" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I1" s="239" t="s">
         <v>6</v>
@@ -32603,23 +32606,23 @@
       </c>
       <c r="B2" s="240"/>
       <c r="C2" s="241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D2" s="241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E2" s="241" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F2" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="241" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H2" s="241"/>
       <c r="I2" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32628,23 +32631,23 @@
       </c>
       <c r="B3" s="240"/>
       <c r="C3" s="241" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D3" s="241" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E3" s="241" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F3" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="241" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H3" s="241"/>
       <c r="I3" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32653,23 +32656,23 @@
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D4" s="241" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E4" s="241" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F4" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G4" s="241" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H4" s="241"/>
       <c r="I4" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32678,23 +32681,23 @@
       </c>
       <c r="B5" s="240"/>
       <c r="C5" s="241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D5" s="241" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E5" s="241" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F5" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="241" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H5" s="241"/>
       <c r="I5" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32703,23 +32706,23 @@
       </c>
       <c r="B6" s="240"/>
       <c r="C6" s="241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D6" s="241" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E6" s="241" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F6" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="241" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H6" s="241"/>
       <c r="I6" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32728,23 +32731,23 @@
       </c>
       <c r="B7" s="240"/>
       <c r="C7" s="241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D7" s="241" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E7" s="241" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F7" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="241" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H7" s="241"/>
       <c r="I7" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32752,22 +32755,22 @@
         <v>44109</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32776,23 +32779,23 @@
       </c>
       <c r="B9" s="240"/>
       <c r="C9" s="241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D9" s="241" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E9" s="241" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F9" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="241" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H9" s="241"/>
       <c r="I9" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32801,96 +32804,96 @@
       </c>
       <c r="B10" s="240"/>
       <c r="C10" s="241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D10" s="241" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E10" s="241" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F10" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G10" s="241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H10" s="241"/>
       <c r="I10" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B11" s="240"/>
       <c r="C11" s="241" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D11" s="241" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E11" s="241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F11" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H11" s="241"/>
       <c r="I11" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B12" s="240"/>
       <c r="C12" s="241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D12" s="241" t="s">
         <v>245</v>
       </c>
       <c r="E12" s="241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F12" s="241" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H12" s="241"/>
       <c r="I12" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="237" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D13" s="242" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F13" s="242" t="s">
         <v>228</v>
       </c>
       <c r="G13" s="242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32899,23 +32902,23 @@
       </c>
       <c r="B14" s="240"/>
       <c r="C14" s="241" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D14" s="241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E14" s="241" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F14" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="241" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H14" s="241"/>
       <c r="I14" s="241" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32924,28 +32927,28 @@
       </c>
       <c r="B15" s="240"/>
       <c r="C15" s="241" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D15" s="241" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E15" s="241" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F15" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="241" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H15" s="241"/>
       <c r="I15" s="241" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="237" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D16" s="242" t="s">
         <v>75</v>
@@ -32954,27 +32957,27 @@
         <v>228</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="237" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D17" s="242" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F17" s="242" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32982,10 +32985,10 @@
         <v>44138</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D18" s="243" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>115</v>
@@ -32994,7 +32997,7 @@
         <v>58</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33002,19 +33005,19 @@
         <v>44153</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D19" s="243" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F19" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="243" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33022,16 +33025,16 @@
         <v>44153</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D20" s="243" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F20" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G20" s="243" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33040,23 +33043,23 @@
       </c>
       <c r="B21" s="240"/>
       <c r="C21" s="241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D21" s="241" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E21" s="241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F21" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="241" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H21" s="241"/>
       <c r="I21" s="241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -33105,7 +33108,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33120,7 +33123,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="239" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33128,7 +33131,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33136,7 +33139,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33144,7 +33147,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="550">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -1817,9 +1817,6 @@
   </si>
   <si>
     <t xml:space="preserve">WP ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titlee</t>
   </si>
   <si>
     <t xml:space="preserve">Prio</t>
@@ -30906,7 +30903,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30932,7 +30929,7 @@
         <v>477</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="D1" s="226" t="s">
         <v>1</v>
@@ -30956,7 +30953,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="227" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32573,28 +32570,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="238" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="238" t="s">
+      <c r="C1" s="239" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="239" t="s">
+      <c r="D1" s="239" t="s">
         <v>482</v>
-      </c>
-      <c r="D1" s="239" t="s">
-        <v>483</v>
       </c>
       <c r="E1" s="239" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="239" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G1" s="239" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="239" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I1" s="239" t="s">
         <v>6</v>
@@ -32606,23 +32603,23 @@
       </c>
       <c r="B2" s="240"/>
       <c r="C2" s="241" t="s">
+        <v>485</v>
+      </c>
+      <c r="D2" s="241" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="241" t="s">
+      <c r="E2" s="241" t="s">
         <v>487</v>
-      </c>
-      <c r="E2" s="241" t="s">
-        <v>488</v>
       </c>
       <c r="F2" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="241" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="241"/>
       <c r="I2" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32631,23 +32628,23 @@
       </c>
       <c r="B3" s="240"/>
       <c r="C3" s="241" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="241" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="241" t="s">
+      <c r="E3" s="241" t="s">
         <v>492</v>
-      </c>
-      <c r="E3" s="241" t="s">
-        <v>493</v>
       </c>
       <c r="F3" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H3" s="241"/>
       <c r="I3" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32656,23 +32653,23 @@
       </c>
       <c r="B4" s="240"/>
       <c r="C4" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="241" t="s">
         <v>495</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="E4" s="241" t="s">
         <v>496</v>
-      </c>
-      <c r="E4" s="241" t="s">
-        <v>497</v>
       </c>
       <c r="F4" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G4" s="241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H4" s="241"/>
       <c r="I4" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32681,23 +32678,23 @@
       </c>
       <c r="B5" s="240"/>
       <c r="C5" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D5" s="241" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="241" t="s">
         <v>498</v>
-      </c>
-      <c r="E5" s="241" t="s">
-        <v>499</v>
       </c>
       <c r="F5" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G5" s="241" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H5" s="241"/>
       <c r="I5" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32706,23 +32703,23 @@
       </c>
       <c r="B6" s="240"/>
       <c r="C6" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" s="241" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" s="241" t="s">
         <v>501</v>
-      </c>
-      <c r="E6" s="241" t="s">
-        <v>502</v>
       </c>
       <c r="F6" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H6" s="241"/>
       <c r="I6" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32731,23 +32728,23 @@
       </c>
       <c r="B7" s="240"/>
       <c r="C7" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="241" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="241" t="s">
         <v>504</v>
-      </c>
-      <c r="E7" s="241" t="s">
-        <v>505</v>
       </c>
       <c r="F7" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="241" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H7" s="241"/>
       <c r="I7" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32755,22 +32752,22 @@
         <v>44109</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32779,23 +32776,23 @@
       </c>
       <c r="B9" s="240"/>
       <c r="C9" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D9" s="241" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="241" t="s">
         <v>511</v>
-      </c>
-      <c r="E9" s="241" t="s">
-        <v>512</v>
       </c>
       <c r="F9" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="241" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H9" s="241"/>
       <c r="I9" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32804,96 +32801,96 @@
       </c>
       <c r="B10" s="240"/>
       <c r="C10" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="241" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="241" t="s">
         <v>514</v>
-      </c>
-      <c r="E10" s="241" t="s">
-        <v>515</v>
       </c>
       <c r="F10" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G10" s="241" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H10" s="241"/>
       <c r="I10" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="240" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B11" s="240"/>
       <c r="C11" s="241" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D11" s="241" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="241" t="s">
         <v>518</v>
-      </c>
-      <c r="E11" s="241" t="s">
-        <v>519</v>
       </c>
       <c r="F11" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="241" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H11" s="241"/>
       <c r="I11" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="240" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B12" s="240"/>
       <c r="C12" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D12" s="241" t="s">
         <v>245</v>
       </c>
       <c r="E12" s="241" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F12" s="241" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="241" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H12" s="241"/>
       <c r="I12" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="237" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="242" t="s">
         <v>522</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="D13" s="242" t="s">
+      <c r="E13" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>524</v>
       </c>
       <c r="F13" s="242" t="s">
         <v>228</v>
       </c>
       <c r="G13" s="242" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32902,23 +32899,23 @@
       </c>
       <c r="B14" s="240"/>
       <c r="C14" s="241" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D14" s="241" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="241" t="s">
         <v>527</v>
-      </c>
-      <c r="E14" s="241" t="s">
-        <v>528</v>
       </c>
       <c r="F14" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H14" s="241"/>
       <c r="I14" s="241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32927,28 +32924,28 @@
       </c>
       <c r="B15" s="240"/>
       <c r="C15" s="241" t="s">
+        <v>529</v>
+      </c>
+      <c r="D15" s="241" t="s">
         <v>530</v>
       </c>
-      <c r="D15" s="241" t="s">
+      <c r="E15" s="241" t="s">
         <v>531</v>
-      </c>
-      <c r="E15" s="241" t="s">
-        <v>532</v>
       </c>
       <c r="F15" s="241" t="s">
         <v>100</v>
       </c>
       <c r="G15" s="241" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H15" s="241"/>
       <c r="I15" s="241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D16" s="242" t="s">
         <v>75</v>
@@ -32957,27 +32954,27 @@
         <v>228</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D17" s="242" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F17" s="242" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>535</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32985,10 +32982,10 @@
         <v>44138</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="243" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>115</v>
@@ -32997,7 +32994,7 @@
         <v>58</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33005,19 +33002,19 @@
         <v>44153</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D19" s="243" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F19" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G19" s="243" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33025,16 +33022,16 @@
         <v>44153</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F20" s="243" t="s">
         <v>100</v>
       </c>
       <c r="G20" s="243" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33043,23 +33040,23 @@
       </c>
       <c r="B21" s="240"/>
       <c r="C21" s="241" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D21" s="241" t="s">
+        <v>542</v>
+      </c>
+      <c r="E21" s="241" t="s">
         <v>543</v>
-      </c>
-      <c r="E21" s="241" t="s">
-        <v>544</v>
       </c>
       <c r="F21" s="241" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="241" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H21" s="241"/>
       <c r="I21" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -33108,7 +33105,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33123,7 +33120,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="239" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33131,7 +33128,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33139,7 +33136,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33147,7 +33144,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
